--- a/RE/RE-02.부동산공시가격/Data/Output/Test_240925.xlsx
+++ b/RE/RE-02.부동산공시가격/Data/Output/Test_240925.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpasj\Documents\강북RPA교육\03_수업교안\과제\01_부동산공시가격\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RE-02.부동산공시가격\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB8D4EA3-34E7-4243-803F-8E49D9DB222A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDC85B2-486F-42D1-AE95-572D27A29BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57C4D437-1CB2-468E-BEE9-DB56AB4DF829}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57C4D437-1CB2-468E-BEE9-DB56AB4DF829}"/>
   </bookViews>
   <sheets>
     <sheet name="회원목록" sheetId="1" r:id="rId1"/>
@@ -36,599 +36,528 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
   <si>
     <t>고객번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고객명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>중분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>단지명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준가격</t>
+  </si>
+  <si>
+    <t>공시기준일</t>
+  </si>
+  <si>
+    <t>공시기준일 가격</t>
+  </si>
+  <si>
+    <t>변동</t>
+  </si>
+  <si>
+    <t>초성</t>
   </si>
   <si>
     <t>A0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시</t>
+  </si>
+  <si>
+    <t>동구</t>
+  </si>
+  <si>
+    <t>우각로93번길</t>
+  </si>
+  <si>
+    <t>천일빌라</t>
+  </si>
+  <si>
+    <t>2024.1.1</t>
+  </si>
+  <si>
+    <t>54,100,000</t>
+  </si>
+  <si>
+    <t>하락</t>
+  </si>
+  <si>
+    <t>ㅇ</t>
+  </si>
+  <si>
+    <t>A0002</t>
+  </si>
+  <si>
+    <t>연수구</t>
+  </si>
+  <si>
+    <t>원인재로</t>
+  </si>
+  <si>
+    <t>연수주공1차</t>
+  </si>
+  <si>
+    <t>59,000,000</t>
   </si>
   <si>
     <t>A0003</t>
   </si>
   <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
+    <t>강서구</t>
+  </si>
+  <si>
+    <t>마곡서로</t>
+  </si>
+  <si>
+    <t>경동미르웰마곡</t>
+  </si>
+  <si>
+    <t>동명없음</t>
+  </si>
+  <si>
+    <t>186,000,000</t>
+  </si>
+  <si>
+    <t>상동</t>
+  </si>
+  <si>
+    <t>ㅁ</t>
+  </si>
+  <si>
     <t>A0004</t>
   </si>
   <si>
+    <t>대전광역시</t>
+  </si>
+  <si>
+    <t>유성구</t>
+  </si>
+  <si>
+    <t>문화원로</t>
+  </si>
+  <si>
+    <t>봉명시티빌</t>
+  </si>
+  <si>
+    <t>정보없음</t>
+  </si>
+  <si>
+    <t>42,100,000</t>
+  </si>
+  <si>
     <t>A0005</t>
   </si>
   <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>과천시</t>
+  </si>
+  <si>
+    <t>사기막길</t>
+  </si>
+  <si>
+    <t>해든팰리스</t>
+  </si>
+  <si>
+    <t>A동</t>
+  </si>
+  <si>
+    <t>330,000,000</t>
+  </si>
+  <si>
+    <t>ㅅ</t>
+  </si>
+  <si>
     <t>A0006</t>
   </si>
   <si>
+    <t>세종특별자치시</t>
+  </si>
+  <si>
+    <t>나성북1로</t>
+  </si>
+  <si>
+    <t>한신더휴리저브</t>
+  </si>
+  <si>
+    <t>677,000,000</t>
+  </si>
+  <si>
+    <t>ㄴ</t>
+  </si>
+  <si>
     <t>A0007</t>
   </si>
   <si>
+    <t>충청남도</t>
+  </si>
+  <si>
+    <t>부여군</t>
+  </si>
+  <si>
+    <t>사비로</t>
+  </si>
+  <si>
+    <t>세운빌라</t>
+  </si>
+  <si>
+    <t>제1동</t>
+  </si>
+  <si>
+    <t>99,700,000</t>
+  </si>
+  <si>
     <t>A0008</t>
   </si>
   <si>
+    <t>경상북도</t>
+  </si>
+  <si>
+    <t>구미시</t>
+  </si>
+  <si>
+    <t>백산로</t>
+  </si>
+  <si>
+    <t>우방타운1</t>
+  </si>
+  <si>
+    <t>103,000,000</t>
+  </si>
+  <si>
+    <t>ㅂ</t>
+  </si>
+  <si>
     <t>A0009</t>
   </si>
   <si>
-    <t>A0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>제주특별자치도</t>
+  </si>
+  <si>
+    <t>제주시</t>
+  </si>
+  <si>
+    <t>노형2길</t>
+  </si>
+  <si>
+    <t>하임스톤</t>
+  </si>
+  <si>
+    <t>61,200,000</t>
   </si>
   <si>
     <t>A0010</t>
   </si>
   <si>
-    <t>서울특별시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충청남도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경상북도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전라남도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우각로93번길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천일빌라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연수구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원인재로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연수주공1차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강서구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마곡서로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경동미르웰마곡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동명없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유성구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화원로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉명시티빌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과천시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사기막길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해든팰리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준가격(￦)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세종특별자치시</t>
-  </si>
-  <si>
-    <t>세종특별자치시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나성북1로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한신더휴리저브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부여군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사비로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세운빌라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제1동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구미시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백산로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우방타운1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주특별자치도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노형2길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하임스톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>구례군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>백련길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>청담웰피아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공시기준일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공시기준일 가격(￦)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137,000,000</t>
   </si>
   <si>
     <t>A0011</t>
   </si>
   <si>
+    <t>광주광역시</t>
+  </si>
+  <si>
+    <t>서구</t>
+  </si>
+  <si>
+    <t>백석길</t>
+  </si>
+  <si>
+    <t>상무양우내안애</t>
+  </si>
+  <si>
+    <t>105동</t>
+  </si>
+  <si>
+    <t>305,000,000</t>
+  </si>
+  <si>
     <t>A0012</t>
   </si>
   <si>
+    <t>294,000,000</t>
+  </si>
+  <si>
     <t>A0013</t>
   </si>
   <si>
+    <t>전라북도</t>
+  </si>
+  <si>
+    <t>임실군</t>
+  </si>
+  <si>
+    <t>삼일로</t>
+  </si>
+  <si>
+    <t>상아프라자</t>
+  </si>
+  <si>
     <t>A0014</t>
   </si>
   <si>
+    <t>강원도</t>
+  </si>
+  <si>
+    <t>인제군</t>
+  </si>
+  <si>
+    <t>원통로</t>
+  </si>
+  <si>
+    <t>혜진아파트</t>
+  </si>
+  <si>
+    <t>B동</t>
+  </si>
+  <si>
     <t>A0015</t>
   </si>
   <si>
+    <t>강원특별자치도</t>
+  </si>
+  <si>
+    <t>춘천시</t>
+  </si>
+  <si>
+    <t>학곡동길</t>
+  </si>
+  <si>
+    <t>장미빌라</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B동 301</t>
+  </si>
+  <si>
+    <t>ㅎ</t>
+  </si>
+  <si>
     <t>A0016</t>
   </si>
   <si>
+    <t>용마로3길</t>
+  </si>
+  <si>
+    <t>다온캐슬</t>
+  </si>
+  <si>
     <t>A0017</t>
   </si>
   <si>
+    <t>울산광역시</t>
+  </si>
+  <si>
+    <t>울주군</t>
+  </si>
+  <si>
+    <t>연안4길</t>
+  </si>
+  <si>
+    <t>진성아트빌1차</t>
+  </si>
+  <si>
     <t>A0018</t>
   </si>
   <si>
+    <t>대구광역시</t>
+  </si>
+  <si>
+    <t>수성구</t>
+  </si>
+  <si>
+    <t>청솔로</t>
+  </si>
+  <si>
+    <t>힐스테이트황금엘포레</t>
+  </si>
+  <si>
+    <t>ㅊ</t>
+  </si>
+  <si>
     <t>A0019</t>
   </si>
   <si>
     <t>A0020</t>
   </si>
   <si>
+    <t>중구</t>
+  </si>
+  <si>
+    <t>서성로</t>
+  </si>
+  <si>
+    <t>경진테크빌101동</t>
+  </si>
+  <si>
     <t>A0021</t>
   </si>
   <si>
+    <t>서성로13길</t>
+  </si>
+  <si>
+    <t>도일하이츠</t>
+  </si>
+  <si>
     <t>A0022</t>
   </si>
   <si>
+    <t>중랑구</t>
+  </si>
+  <si>
+    <t>봉화산로8길</t>
+  </si>
+  <si>
+    <t>해피리움</t>
+  </si>
+  <si>
     <t>A0023</t>
   </si>
   <si>
+    <t>은평구</t>
+  </si>
+  <si>
+    <t>백련산로14길</t>
+  </si>
+  <si>
+    <t>국제빌라(46-2)</t>
+  </si>
+  <si>
     <t>A0024</t>
   </si>
   <si>
+    <t>국제빌라(95-16)</t>
+  </si>
+  <si>
     <t>A0025</t>
   </si>
   <si>
+    <t>종로구</t>
+  </si>
+  <si>
+    <t>인왕산로1길</t>
+  </si>
+  <si>
+    <t>칠갑산빌라</t>
+  </si>
+  <si>
     <t>A0026</t>
   </si>
   <si>
+    <t>성북구</t>
+  </si>
+  <si>
+    <t>북악산로1나길</t>
+  </si>
+  <si>
+    <t>산장주택</t>
+  </si>
+  <si>
+    <t>비01</t>
+  </si>
+  <si>
     <t>A0027</t>
   </si>
   <si>
+    <t>스카이뷰(508-71)</t>
+  </si>
+  <si>
     <t>A0028</t>
   </si>
   <si>
+    <t>용산구</t>
+  </si>
+  <si>
+    <t>서빙고로75가길</t>
+  </si>
+  <si>
+    <t>리버힐</t>
+  </si>
+  <si>
+    <t>씨</t>
+  </si>
+  <si>
     <t>A0029</t>
   </si>
   <si>
+    <t>리버힐에이동</t>
+  </si>
+  <si>
     <t>A0030</t>
   </si>
   <si>
+    <t>계양구</t>
+  </si>
+  <si>
+    <t>계양대로139번길</t>
+  </si>
+  <si>
+    <t>세양아트빌라</t>
+  </si>
+  <si>
+    <t>ㄱ</t>
+  </si>
+  <si>
     <t>A0031</t>
   </si>
   <si>
+    <t>계양대로</t>
+  </si>
+  <si>
+    <t>광명아트빌1동</t>
+  </si>
+  <si>
     <t>A0032</t>
   </si>
   <si>
-    <t>광주광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백석길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상무양우내안애</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전라북도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임실군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼일로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상아프라자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강원도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인제군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원통로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혜진아파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강원특별자치도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>춘천시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학곡동길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장미빌라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B동 301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용마로3길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다온캐슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울주군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연안4길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진성아트빌1차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수성구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청솔로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐스테이트황금엘포레</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서성로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경진테크빌101동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서성로13길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도일하이츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중랑구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉화산로8길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해피리움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은평구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백련산로14길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국제빌라(46-2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동명없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국제빌라(95-16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종로구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인왕산로1길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칠갑산빌라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성북구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>북악산로1나길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산장주택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스카이뷰(508-71)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용산구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서빙고로75가길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버힐에이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계양구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세양아트빌라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계양대로139번길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광명아트빌1동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계양대로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유성구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지족로190번길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>트리풀시티포레아파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅈ</t>
   </si>
 </sst>
 </file>
@@ -710,20 +639,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,28 +986,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F02DF-D866-446D-A5ED-D44204B2CBDF}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection activeCell="K15" sqref="K15"/>
       <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.59765625" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1107,65 +1034,77 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1">
         <v>203</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="1">
         <v>54800000</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1">
         <v>101</v>
@@ -1173,124 +1112,160 @@
       <c r="H3" s="1">
         <v>111</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="1">
         <v>61900000</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H4" s="1">
         <v>602</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="1">
         <v>186000000</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1">
         <v>305</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1">
         <v>202</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <v>343000000</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1">
         <v>603</v>
@@ -1298,59 +1273,81 @@
       <c r="H7" s="1">
         <v>502</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>879000000</v>
       </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1">
         <v>305</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>103000000</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1">
         <v>7</v>
@@ -1358,283 +1355,355 @@
       <c r="H9" s="1">
         <v>107</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="1">
         <v>136000000</v>
       </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1">
         <v>204</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="1">
         <v>61000000</v>
       </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H11" s="1">
         <v>105</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="1">
         <v>158000000</v>
       </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H12" s="1">
         <v>1605</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="1">
         <v>342000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H13" s="1">
         <v>605</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="1">
         <v>307000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="1">
         <v>801</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="1">
         <v>33100000</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H15" s="1">
         <v>402</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="1">
         <v>43900000</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="4">
+        <v>110</v>
+      </c>
+      <c r="I16" s="1">
         <v>43900000</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H17" s="1">
         <v>402</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="1">
         <v>133000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H18" s="1">
         <v>202</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="1">
         <v>68400000</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1">
         <v>108</v>
@@ -1642,28 +1711,31 @@
       <c r="H19" s="1">
         <v>1202</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="1">
         <v>498000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G20" s="1">
         <v>108</v>
@@ -1671,28 +1743,31 @@
       <c r="H20" s="1">
         <v>202</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="1">
         <v>471000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G21" s="1">
         <v>101</v>
@@ -1700,280 +1775,310 @@
       <c r="H21" s="1">
         <v>1101</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="1">
         <v>145000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="H22" s="1">
         <v>602</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="1">
         <v>111000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="H23" s="1">
         <v>302</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="1">
         <v>233000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="H24" s="1">
         <v>401</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="1">
         <v>214000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="H25" s="1">
         <v>401</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="1">
         <v>69000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H26" s="1">
         <v>201</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="1">
         <v>132000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I27" s="4">
+        <v>152</v>
+      </c>
+      <c r="I27" s="1">
         <v>115000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="H28" s="1">
         <v>304</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="1">
         <v>132000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="H29" s="1">
         <v>101</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="1">
         <v>1218000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" s="1">
         <v>101</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="1">
         <v>1438000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
@@ -1981,28 +2086,31 @@
       <c r="H31" s="1">
         <v>302</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="1">
         <v>91300000</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -2010,37 +2118,43 @@
       <c r="H32" s="1">
         <v>502</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="1">
         <v>57500000</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H33" s="1">
         <v>1303</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="1">
         <v>339000000</v>
+      </c>
+      <c r="M33" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
